--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_15_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_15_8.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_0</t>
+          <t>model_15_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9451023458731473</v>
+        <v>0.9691535787547596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.734771834010631</v>
+        <v>0.7652993254755655</v>
       </c>
       <c r="D2" t="n">
-        <v>0.640700009832565</v>
+        <v>0.8966394546404546</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9497664298417804</v>
+        <v>0.9731713202631448</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8508466004177249</v>
+        <v>0.9664064488281732</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3671008659267176</v>
+        <v>0.2062701609016325</v>
       </c>
       <c r="H2" t="n">
-        <v>1.77358196723432</v>
+        <v>1.56944449124213</v>
       </c>
       <c r="I2" t="n">
-        <v>0.745318895232719</v>
+        <v>0.2355517466396042</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2210672068955807</v>
+        <v>0.6229203469645263</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4831930510641499</v>
+        <v>0.4292360468020652</v>
       </c>
       <c r="L2" t="n">
-        <v>1.203180200368853</v>
+        <v>1.025080967595554</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6058884929809425</v>
+        <v>0.4541697489943958</v>
       </c>
       <c r="N2" t="n">
-        <v>1.026888646919275</v>
+        <v>1.015108451222159</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6316824204892264</v>
+        <v>0.4735046954700758</v>
       </c>
       <c r="P2" t="n">
-        <v>148.004237259303</v>
+        <v>149.1571370174369</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.9821724746817</v>
+        <v>238.1350722328155</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_1</t>
+          <t>model_15_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9451394972549223</v>
+        <v>0.9691945708077397</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7334621409774983</v>
+        <v>0.7651330653227856</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6333693708862327</v>
+        <v>0.8972055475450115</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9475703713021171</v>
+        <v>0.9735657330235669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8470080064761598</v>
+        <v>0.9668152876342507</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3668524344657221</v>
+        <v>0.2059960468546031</v>
       </c>
       <c r="H3" t="n">
-        <v>1.78233989057746</v>
+        <v>1.570556273649326</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7605253073405632</v>
+        <v>0.2342616588990178</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2307315912109588</v>
+        <v>0.6137626941847713</v>
       </c>
       <c r="K3" t="n">
-        <v>0.495628449275761</v>
+        <v>0.4240121765418945</v>
       </c>
       <c r="L3" t="n">
-        <v>1.189906015581555</v>
+        <v>1.03525252859834</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6056834441073341</v>
+        <v>0.4538678737855359</v>
       </c>
       <c r="N3" t="n">
-        <v>1.02687045032412</v>
+        <v>1.015088373481923</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6314686422605588</v>
+        <v>0.4731899688086069</v>
       </c>
       <c r="P3" t="n">
-        <v>148.0055911954205</v>
+        <v>149.1597966008058</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.9835264107991</v>
+        <v>238.1377318161844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_2</t>
+          <t>model_15_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9451588992709158</v>
+        <v>0.9692318683264683</v>
       </c>
       <c r="C4" t="n">
-        <v>0.732151108504196</v>
+        <v>0.7649609580162526</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6261368356246683</v>
+        <v>0.8977645186407506</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9452793125107281</v>
+        <v>0.9739617717611455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8431362950227146</v>
+        <v>0.9672249686560457</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3667226930954359</v>
+        <v>0.2057466381751256</v>
       </c>
       <c r="H4" t="n">
-        <v>1.791106770763182</v>
+        <v>1.571707156000594</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7755282167154531</v>
+        <v>0.2329878012828028</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2408140513317643</v>
+        <v>0.6045672887364377</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5081711340236088</v>
+        <v>0.4187775450096203</v>
       </c>
       <c r="L4" t="n">
-        <v>1.176795000332776</v>
+        <v>1.045572692584758</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6055763313533942</v>
+        <v>0.4535930314446261</v>
       </c>
       <c r="N4" t="n">
-        <v>1.026860947295878</v>
+        <v>1.015070105309485</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6313569694949297</v>
+        <v>0.4729034258602425</v>
       </c>
       <c r="P4" t="n">
-        <v>148.0062986423705</v>
+        <v>149.162219557852</v>
       </c>
       <c r="Q4" t="n">
-        <v>236.9842338577491</v>
+        <v>238.1401547732306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_3</t>
+          <t>model_15_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9451619417204828</v>
+        <v>0.9692652423849006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7308397071010384</v>
+        <v>0.7647828831684018</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6190115318330708</v>
+        <v>0.8983163816776628</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9428999470069457</v>
+        <v>0.9743592116012941</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8392389348211627</v>
+        <v>0.9676352888033182</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3667023482211716</v>
+        <v>0.2055234656927153</v>
       </c>
       <c r="H5" t="n">
-        <v>1.799876117984545</v>
+        <v>1.572897943328131</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7903086890101397</v>
+        <v>0.2317301424556525</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2512851304218655</v>
+        <v>0.5953393518587692</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5207969097160027</v>
+        <v>0.4135347471572108</v>
       </c>
       <c r="L5" t="n">
-        <v>1.163838663035971</v>
+        <v>1.055991228053966</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6055595331766908</v>
+        <v>0.4533469595053167</v>
       </c>
       <c r="N5" t="n">
-        <v>1.026859457116498</v>
+        <v>1.015053758831885</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6313394561850669</v>
+        <v>0.4726468781290376</v>
       </c>
       <c r="P5" t="n">
-        <v>148.0064096005359</v>
+        <v>149.1643901265582</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.9843448159145</v>
+        <v>238.1423253419369</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_4</t>
+          <t>model_15_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9451502450206029</v>
+        <v>0.969294609702025</v>
       </c>
       <c r="C6" t="n">
-        <v>0.729529120117703</v>
+        <v>0.7645985891374595</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6120049660051836</v>
+        <v>0.8988614153496908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9404393412114311</v>
+        <v>0.9747580444603768</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8353244094729889</v>
+        <v>0.9680462655850131</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3667805641071274</v>
+        <v>0.2053270863078809</v>
       </c>
       <c r="H6" t="n">
-        <v>1.808640019176806</v>
+        <v>1.574130318361638</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8048428555704634</v>
+        <v>0.2304880472927738</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2621137306740909</v>
+        <v>0.5860790712412557</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5334782931222771</v>
+        <v>0.4082835592670147</v>
       </c>
       <c r="L6" t="n">
-        <v>1.156044855046438</v>
+        <v>1.066508230706435</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6056241112333024</v>
+        <v>0.4531303193429908</v>
       </c>
       <c r="N6" t="n">
-        <v>1.026865186112358</v>
+        <v>1.015039374839825</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6314067834632436</v>
+        <v>0.4724210151464945</v>
       </c>
       <c r="P6" t="n">
-        <v>148.0059830554321</v>
+        <v>149.1663020568096</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.9839182708107</v>
+        <v>238.1442372721882</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_5</t>
+          <t>model_15_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9451251519216789</v>
+        <v>0.9693197701888723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7282202466819248</v>
+        <v>0.7644079778428844</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6051246890995028</v>
+        <v>0.8994003202509753</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9379039716306479</v>
+        <v>0.9751580384274883</v>
       </c>
       <c r="F7" t="n">
-        <v>0.831399535490895</v>
+        <v>0.9684577507697225</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3669483617751751</v>
+        <v>0.2051588380164797</v>
       </c>
       <c r="H7" t="n">
-        <v>1.817392461868664</v>
+        <v>1.575404936966146</v>
       </c>
       <c r="I7" t="n">
-        <v>0.819115052961417</v>
+        <v>0.229259919187135</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2732713503675829</v>
+        <v>0.5767918314955552</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5461932016645</v>
+        <v>0.4030258753413452</v>
       </c>
       <c r="L7" t="n">
-        <v>1.149186031973316</v>
+        <v>1.07712601487068</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6057626282424289</v>
+        <v>0.4529446301883704</v>
       </c>
       <c r="N7" t="n">
-        <v>1.02687747660979</v>
+        <v>1.015027051336063</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6315511974282183</v>
+        <v>0.4722274208201324</v>
       </c>
       <c r="P7" t="n">
-        <v>148.0050682888742</v>
+        <v>149.1679415605378</v>
       </c>
       <c r="Q7" t="n">
-        <v>236.9830035042529</v>
+        <v>238.1458767759164</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_6</t>
+          <t>model_15_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9450879007813163</v>
+        <v>0.9693405823028722</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7269140785674351</v>
+        <v>0.764210867007757</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5983798770666058</v>
+        <v>0.8999333099801264</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9353000912502305</v>
+        <v>0.9755590596660046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.827471497824831</v>
+        <v>0.9688696418046815</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3671974603223051</v>
+        <v>0.2050196673143312</v>
       </c>
       <c r="H8" t="n">
-        <v>1.826126814064607</v>
+        <v>1.576723018028255</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8331062469232327</v>
+        <v>0.2280452713618377</v>
       </c>
       <c r="J8" t="n">
-        <v>0.284730471448884</v>
+        <v>0.5674807401005659</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5589183591860584</v>
+        <v>0.3977630057312017</v>
       </c>
       <c r="L8" t="n">
-        <v>1.142580035583005</v>
+        <v>1.08784694007549</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6059682007517433</v>
+        <v>0.4527909753013317</v>
       </c>
       <c r="N8" t="n">
-        <v>1.026895722066294</v>
+        <v>1.015016857647573</v>
       </c>
       <c r="O8" t="n">
-        <v>0.631765521584848</v>
+        <v>0.472067224526443</v>
       </c>
       <c r="P8" t="n">
-        <v>148.0037110731866</v>
+        <v>149.1692987326536</v>
       </c>
       <c r="Q8" t="n">
-        <v>236.9816462885653</v>
+        <v>238.1472339480322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_7</t>
+          <t>model_15_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9450398289575861</v>
+        <v>0.9693568887128134</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7256114593593175</v>
+        <v>0.7640071137480112</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5917777819163084</v>
+        <v>0.9004604224320616</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9326337045761928</v>
+        <v>0.9759608905137698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8235466966821761</v>
+        <v>0.9692817443059306</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3675189168289395</v>
+        <v>0.2049106262759701</v>
       </c>
       <c r="H9" t="n">
-        <v>1.8348374347073</v>
+        <v>1.578085517014373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8468013941492259</v>
+        <v>0.226844017456908</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2964646693702448</v>
+        <v>0.5581508508340784</v>
       </c>
       <c r="K9" t="n">
-        <v>0.5716330317597355</v>
+        <v>0.3924974341454932</v>
       </c>
       <c r="L9" t="n">
-        <v>1.136856051986892</v>
+        <v>1.098667833883425</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6062333847858756</v>
+        <v>0.452670549379977</v>
       </c>
       <c r="N9" t="n">
-        <v>1.026919267449346</v>
+        <v>1.01500887083454</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6320419950523199</v>
+        <v>0.4719416718243001</v>
       </c>
       <c r="P9" t="n">
-        <v>148.0019609745791</v>
+        <v>149.1703627285831</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.9798961899577</v>
+        <v>238.1482979439617</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_8</t>
+          <t>model_15_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9449819916194262</v>
+        <v>0.9693684270125877</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7243131554417738</v>
+        <v>0.7637965101824591</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5853251745602581</v>
+        <v>0.9009822814875215</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9299105699007526</v>
+        <v>0.9763634007366477</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8196312110075834</v>
+        <v>0.96969399558229</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3679056753755314</v>
+        <v>0.20483346961225</v>
       </c>
       <c r="H10" t="n">
-        <v>1.843519198982054</v>
+        <v>1.57949382402696</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8601864493053387</v>
+        <v>0.225654735690005</v>
       </c>
       <c r="J10" t="n">
-        <v>0.308448603118214</v>
+        <v>0.5488051875308106</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5843175262117764</v>
+        <v>0.3872299616104079</v>
       </c>
       <c r="L10" t="n">
-        <v>1.131143415840048</v>
+        <v>1.109597116097247</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6065522857722419</v>
+        <v>0.452585317495221</v>
       </c>
       <c r="N10" t="n">
-        <v>1.026947595941506</v>
+        <v>1.015003219422406</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6323744723138919</v>
+        <v>0.4718528114417557</v>
       </c>
       <c r="P10" t="n">
-        <v>147.9998573811646</v>
+        <v>149.1711159466565</v>
       </c>
       <c r="Q10" t="n">
-        <v>236.9777925965433</v>
+        <v>238.1490511620352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_9</t>
+          <t>model_15_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9449153801831225</v>
+        <v>0.9693751811294486</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7230198688419016</v>
+        <v>0.7635789035186341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5790257567199293</v>
+        <v>0.9014991225468012</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9271355752432782</v>
+        <v>0.9767664450571086</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8157295460031722</v>
+        <v>0.9701062846302684</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3683511063568116</v>
+        <v>0.2047883048017018</v>
       </c>
       <c r="H11" t="n">
-        <v>1.852167412430437</v>
+        <v>1.580948960789944</v>
       </c>
       <c r="I11" t="n">
-        <v>0.8732537336745234</v>
+        <v>0.2244768895996527</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3206607615641665</v>
+        <v>0.5394471233097546</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5969572476193449</v>
+        <v>0.3819620064547036</v>
       </c>
       <c r="L11" t="n">
-        <v>1.125447738281973</v>
+        <v>1.120625698806775</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6069193573752708</v>
+        <v>0.4525354182842507</v>
       </c>
       <c r="N11" t="n">
-        <v>1.026980221951124</v>
+        <v>1.014999911283535</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6327571709150047</v>
+        <v>0.4718007879180689</v>
       </c>
       <c r="P11" t="n">
-        <v>147.9974374046202</v>
+        <v>149.1715569858156</v>
       </c>
       <c r="Q11" t="n">
-        <v>236.9753726199988</v>
+        <v>238.1494922011942</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_10</t>
+          <t>model_15_8_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9448410763709717</v>
+        <v>0.96937688918075</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7217321500258859</v>
+        <v>0.7633541173252655</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5728854236536087</v>
+        <v>0.9020112986526662</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9243138324318216</v>
+        <v>0.9771698576390669</v>
       </c>
       <c r="F12" t="n">
-        <v>0.811847061170488</v>
+        <v>0.970518492258497</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3688479762908018</v>
+        <v>0.2047768830547844</v>
       </c>
       <c r="H12" t="n">
-        <v>1.860778394082534</v>
+        <v>1.582452107100045</v>
       </c>
       <c r="I12" t="n">
-        <v>0.885991018346361</v>
+        <v>0.2233096746250811</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3330786486452882</v>
+        <v>0.5300805086277035</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6095348334958245</v>
+        <v>0.3766950916263923</v>
       </c>
       <c r="L12" t="n">
-        <v>1.119760875836125</v>
+        <v>1.131762713973206</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6073285571178106</v>
+        <v>0.4525227983812356</v>
       </c>
       <c r="N12" t="n">
-        <v>1.027016615655034</v>
+        <v>1.014999074686979</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6331837911377448</v>
+        <v>0.4717876307596556</v>
       </c>
       <c r="P12" t="n">
-        <v>147.9947414164079</v>
+        <v>149.1716685357936</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.9726766317865</v>
+        <v>238.1496037511722</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_11</t>
+          <t>model_15_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9447597376537205</v>
+        <v>0.969373404589158</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7204505398268005</v>
+        <v>0.7631219916493323</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5669060021790022</v>
+        <v>0.9025195173934603</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9214495179478214</v>
+        <v>0.9775734688703456</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8079871781486496</v>
+        <v>0.9709305274626516</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3693918886675915</v>
+        <v>0.2048001845348056</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86934852738509</v>
+        <v>1.584004332563852</v>
       </c>
       <c r="I13" t="n">
-        <v>0.898394513836321</v>
+        <v>0.2221514782199382</v>
       </c>
       <c r="J13" t="n">
-        <v>0.345683884559321</v>
+        <v>0.5207092816164287</v>
       </c>
       <c r="K13" t="n">
-        <v>0.622039199197821</v>
+        <v>0.3714303799181835</v>
       </c>
       <c r="L13" t="n">
-        <v>1.11409374396074</v>
+        <v>1.143006458155361</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6077761830374661</v>
+        <v>0.4525485438434264</v>
       </c>
       <c r="N13" t="n">
-        <v>1.027056455026749</v>
+        <v>1.015000781425718</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6336504734195133</v>
+        <v>0.4718144722594723</v>
       </c>
       <c r="P13" t="n">
-        <v>147.9917943391717</v>
+        <v>149.1714409695367</v>
       </c>
       <c r="Q13" t="n">
-        <v>236.9697295545504</v>
+        <v>238.1493761849153</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9446723558988415</v>
+        <v>0.9693644214035446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.719175509915596</v>
+        <v>0.762882278705407</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5610921173512794</v>
+        <v>0.9030234457572403</v>
       </c>
       <c r="E14" t="n">
-        <v>0.918547331096358</v>
+        <v>0.9779769484927761</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8041545695753252</v>
+        <v>0.9713420604793389</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3699762108648231</v>
+        <v>0.2048602551383656</v>
       </c>
       <c r="H14" t="n">
-        <v>1.877874658272288</v>
+        <v>1.585607294123656</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9104546260973577</v>
+        <v>0.2210030592960953</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3584557886688901</v>
+        <v>0.5113411103585529</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6344552073831239</v>
+        <v>0.3661720848273242</v>
       </c>
       <c r="L14" t="n">
-        <v>1.108440354985722</v>
+        <v>1.154361004341748</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6082566981668374</v>
+        <v>0.4526149082148814</v>
       </c>
       <c r="N14" t="n">
-        <v>1.027099254253629</v>
+        <v>1.015005181353366</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6341514450727453</v>
+        <v>0.4718836618996134</v>
       </c>
       <c r="P14" t="n">
-        <v>147.9886331407416</v>
+        <v>149.1708544290932</v>
       </c>
       <c r="Q14" t="n">
-        <v>236.9665683561203</v>
+        <v>238.1487896444718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_13</t>
+          <t>model_15_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9445794914212652</v>
+        <v>0.969349935361587</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7179073654729879</v>
+        <v>0.7626348402479894</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5554434008857351</v>
+        <v>0.9035242263584697</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9156102482822351</v>
+        <v>0.9783802805446914</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8003511391847437</v>
+        <v>0.9717531787030182</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3705971960539775</v>
+        <v>0.2049571233676386</v>
       </c>
       <c r="H15" t="n">
-        <v>1.886354745999276</v>
+        <v>1.587261916227756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9221721190859339</v>
+        <v>0.2198618139118677</v>
       </c>
       <c r="J15" t="n">
-        <v>0.371381262452539</v>
+        <v>0.5019763654592397</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6467766907692364</v>
+        <v>0.3609190896855537</v>
       </c>
       <c r="L15" t="n">
-        <v>1.102803315072334</v>
+        <v>1.165819644485343</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6087669472416989</v>
+        <v>0.4527219051113372</v>
       </c>
       <c r="N15" t="n">
-        <v>1.027144738895707</v>
+        <v>1.01501227655759</v>
       </c>
       <c r="O15" t="n">
-        <v>0.634683416507085</v>
+        <v>0.4719952138754653</v>
       </c>
       <c r="P15" t="n">
-        <v>147.9852790622457</v>
+        <v>149.1699089520475</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.9632142776244</v>
+        <v>238.1478441674261</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_14</t>
+          <t>model_15_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9444816566926285</v>
+        <v>0.9693296477051901</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7166464436946742</v>
+        <v>0.7623794477454111</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5499612725464746</v>
+        <v>0.904021817332491</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9126419481848558</v>
+        <v>0.9787831806067813</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7965798401747574</v>
+        <v>0.9721636199826891</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3712514173348578</v>
+        <v>0.2050927870193803</v>
       </c>
       <c r="H16" t="n">
-        <v>1.894786535736871</v>
+        <v>1.588969727068473</v>
       </c>
       <c r="I16" t="n">
-        <v>0.9335440476947753</v>
+        <v>0.2187278374740009</v>
       </c>
       <c r="J16" t="n">
-        <v>0.3844441168283826</v>
+        <v>0.4926216506938951</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6589940822615791</v>
+        <v>0.355674744083948</v>
       </c>
       <c r="L16" t="n">
-        <v>1.097183384489816</v>
+        <v>1.17739155112988</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6093040434256594</v>
+        <v>0.4528717114364512</v>
       </c>
       <c r="N16" t="n">
-        <v>1.027192657946468</v>
+        <v>1.015022213368886</v>
       </c>
       <c r="O16" t="n">
-        <v>0.635243377987539</v>
+        <v>0.4721513977659813</v>
       </c>
       <c r="P16" t="n">
-        <v>147.981751542271</v>
+        <v>149.1685855652767</v>
       </c>
       <c r="Q16" t="n">
-        <v>236.9596867576497</v>
+        <v>238.1465207806554</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_15</t>
+          <t>model_15_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.944379525796934</v>
+        <v>0.9693033554050431</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7153929812571281</v>
+        <v>0.7621158707706266</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5446461004783267</v>
+        <v>0.9045165056714838</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9096459886753466</v>
+        <v>0.9791855286836144</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7928432070006999</v>
+        <v>0.9725733008865559</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3719343671046368</v>
+        <v>0.2052686037515286</v>
       </c>
       <c r="H17" t="n">
-        <v>1.903168444828405</v>
+        <v>1.590732267512517</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9445696482575745</v>
+        <v>0.2176004759465759</v>
       </c>
       <c r="J17" t="n">
-        <v>0.397628694365941</v>
+        <v>0.4832797521703876</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6710991713117578</v>
+        <v>0.3504401140584817</v>
       </c>
       <c r="L17" t="n">
-        <v>1.091585695639294</v>
+        <v>1.189072769613885</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6098642202200723</v>
+        <v>0.4530657830288319</v>
       </c>
       <c r="N17" t="n">
-        <v>1.027242681242318</v>
+        <v>1.015035091230183</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6358274026678159</v>
+        <v>0.4723537313878332</v>
       </c>
       <c r="P17" t="n">
-        <v>147.9780757455789</v>
+        <v>149.1668717905712</v>
       </c>
       <c r="Q17" t="n">
-        <v>236.9560109609575</v>
+        <v>238.1448070059498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_16</t>
+          <t>model_15_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9442733984413898</v>
+        <v>0.9692708560310505</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7141470663566085</v>
+        <v>0.7618439712887894</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5394952743378134</v>
+        <v>0.9050089074629178</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9066242913174229</v>
+        <v>0.9795870174425025</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7891417091057591</v>
+        <v>0.9729819971203251</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3726440412198322</v>
+        <v>0.2054859272150631</v>
       </c>
       <c r="H18" t="n">
-        <v>1.911499883505091</v>
+        <v>1.592550460599544</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9552543355763643</v>
+        <v>0.2164783253075938</v>
       </c>
       <c r="J18" t="n">
-        <v>0.4109265386739601</v>
+        <v>0.4739578056772329</v>
       </c>
       <c r="K18" t="n">
-        <v>0.6830904371251623</v>
+        <v>0.3452180654924133</v>
       </c>
       <c r="L18" t="n">
-        <v>1.086004926349929</v>
+        <v>1.200866402044991</v>
       </c>
       <c r="M18" t="n">
-        <v>0.61044577254645</v>
+        <v>0.4533055561263982</v>
       </c>
       <c r="N18" t="n">
-        <v>1.027294661987891</v>
+        <v>1.015051009290914</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6364337128807068</v>
+        <v>0.4726037121225617</v>
       </c>
       <c r="P18" t="n">
-        <v>147.974263256137</v>
+        <v>149.1647554561921</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.9521984715157</v>
+        <v>238.1426906715707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_17</t>
+          <t>model_15_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9441636649797205</v>
+        <v>0.9692319665225759</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7129088900670322</v>
+        <v>0.76156348754745</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5345080873681596</v>
+        <v>0.9054987994065584</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9035799014709156</v>
+        <v>0.9799874751248617</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7854771886947436</v>
+        <v>0.9733895327140322</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3733778293832911</v>
+        <v>0.2057459815373023</v>
       </c>
       <c r="H19" t="n">
-        <v>1.919779574054765</v>
+        <v>1.59442605666939</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9655995757218183</v>
+        <v>0.2153618944433041</v>
       </c>
       <c r="J19" t="n">
-        <v>0.4243242477746441</v>
+        <v>0.4646597991824468</v>
       </c>
       <c r="K19" t="n">
-        <v>0.6949619117482312</v>
+        <v>0.3400108468128755</v>
       </c>
       <c r="L19" t="n">
-        <v>1.080451295550216</v>
+        <v>1.212774314056147</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6110465034539443</v>
+        <v>0.4535923076258043</v>
       </c>
       <c r="N19" t="n">
-        <v>1.027348408989525</v>
+        <v>1.015070057213432</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6370600181466175</v>
+        <v>0.472902671226955</v>
       </c>
       <c r="P19" t="n">
-        <v>147.9703288492302</v>
+        <v>149.1622259408372</v>
       </c>
       <c r="Q19" t="n">
-        <v>236.9482640646088</v>
+        <v>238.1401611562158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_18</t>
+          <t>model_15_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9440506920937726</v>
+        <v>0.9691864827800064</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7116784427769876</v>
+        <v>0.7612741993637691</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5296823583946061</v>
+        <v>0.9059877091623225</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9005149098727664</v>
+        <v>0.9803867442798415</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7818503675200503</v>
+        <v>0.9737959008458241</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3741332795918174</v>
+        <v>0.2060501315332979</v>
       </c>
       <c r="H20" t="n">
-        <v>1.928007580748982</v>
+        <v>1.596360528085714</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9756098932439126</v>
+        <v>0.2142477019192731</v>
       </c>
       <c r="J20" t="n">
-        <v>0.4378126207815229</v>
+        <v>0.455389388450659</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7067112570127178</v>
+        <v>0.3348185451849661</v>
       </c>
       <c r="L20" t="n">
-        <v>1.074914421263587</v>
+        <v>1.224798044827404</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6116643520688592</v>
+        <v>0.4539274518392756</v>
       </c>
       <c r="N20" t="n">
-        <v>1.027403742647948</v>
+        <v>1.015092334964895</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6377041698561923</v>
+        <v>0.4732520832234379</v>
       </c>
       <c r="P20" t="n">
-        <v>147.9662863650094</v>
+        <v>149.1592715656826</v>
       </c>
       <c r="Q20" t="n">
-        <v>236.944221580388</v>
+        <v>238.1372067810612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_19</t>
+          <t>model_15_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9439346492713101</v>
+        <v>0.969134130012706</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7104557456422814</v>
+        <v>0.7609759266065428</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5250153338257391</v>
+        <v>0.9064748426841255</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8974311489464526</v>
+        <v>0.9807845683741048</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7782616086164207</v>
+        <v>0.9742007976227425</v>
       </c>
       <c r="G21" t="n">
-        <v>0.374909258479952</v>
+        <v>0.2064002147292982</v>
       </c>
       <c r="H21" t="n">
-        <v>1.936183762118765</v>
+        <v>1.598355079386705</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9852910000930138</v>
+        <v>0.2131375573132414</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4513835935904777</v>
+        <v>0.4461525297882146</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7183372968417457</v>
+        <v>0.329645043550728</v>
       </c>
       <c r="L21" t="n">
-        <v>1.069408002698783</v>
+        <v>1.236936172023547</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6122983410723501</v>
+        <v>0.4543129039872169</v>
       </c>
       <c r="N21" t="n">
-        <v>1.027460579948746</v>
+        <v>1.015117977136634</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6383651490841</v>
+        <v>0.473653944867313</v>
       </c>
       <c r="P21" t="n">
-        <v>147.9621425193595</v>
+        <v>149.1558764100403</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.9400777347382</v>
+        <v>238.1338116254189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_20</t>
+          <t>model_15_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9438158469882059</v>
+        <v>0.9690746918523462</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7092408654692082</v>
+        <v>0.7606684271760755</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5205037640554447</v>
+        <v>0.9069612169829511</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8943306987461582</v>
+        <v>0.9811806405442955</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7747112844110238</v>
+        <v>0.9746040349307679</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3757036898941039</v>
+        <v>0.2067976779813114</v>
       </c>
       <c r="H22" t="n">
-        <v>1.944307671430115</v>
+        <v>1.600411329494145</v>
       </c>
       <c r="I22" t="n">
-        <v>0.994649637134429</v>
+        <v>0.2120291429254259</v>
       </c>
       <c r="J22" t="n">
-        <v>0.465028012327571</v>
+        <v>0.4369563480864641</v>
       </c>
       <c r="K22" t="n">
-        <v>0.729838824731</v>
+        <v>0.324492745505945</v>
       </c>
       <c r="L22" t="n">
-        <v>1.06399406481759</v>
+        <v>1.249195482137658</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6129467267994045</v>
+        <v>0.4547501269722872</v>
       </c>
       <c r="N22" t="n">
-        <v>1.027518768822103</v>
+        <v>1.015147089704973</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6390411379338986</v>
+        <v>0.4741097813400341</v>
       </c>
       <c r="P22" t="n">
-        <v>147.9579090101322</v>
+        <v>149.1520287294822</v>
       </c>
       <c r="Q22" t="n">
-        <v>236.9358442255108</v>
+        <v>238.1299639448609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_21</t>
+          <t>model_15_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9436943012533475</v>
+        <v>0.9690079900610902</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7080336185330656</v>
+        <v>0.7603514406027856</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5161432080170172</v>
+        <v>0.9074469715580118</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8912146362342825</v>
+        <v>0.981574886237753</v>
       </c>
       <c r="F23" t="n">
-        <v>0.771198704549109</v>
+        <v>0.975005557473241</v>
       </c>
       <c r="G23" t="n">
-        <v>0.3765164667827683</v>
+        <v>0.2072437131665739</v>
       </c>
       <c r="H23" t="n">
-        <v>1.952380537250961</v>
+        <v>1.602531020169323</v>
       </c>
       <c r="I23" t="n">
-        <v>1.003695016756195</v>
+        <v>0.2109221408464825</v>
       </c>
       <c r="J23" t="n">
-        <v>0.4787411375114412</v>
+        <v>0.427802574342598</v>
       </c>
       <c r="K23" t="n">
-        <v>0.741218077133818</v>
+        <v>0.3193623575945403</v>
       </c>
       <c r="L23" t="n">
-        <v>1.058792183734862</v>
+        <v>1.261569688384355</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6136093763810723</v>
+        <v>0.4552402806942439</v>
       </c>
       <c r="N23" t="n">
-        <v>1.027578301426932</v>
+        <v>1.015179759970078</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6397319978801316</v>
+        <v>0.4746208019206925</v>
       </c>
       <c r="P23" t="n">
-        <v>147.9535869924476</v>
+        <v>149.1477196399338</v>
       </c>
       <c r="Q23" t="n">
-        <v>236.9315222078262</v>
+        <v>238.1256548553124</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_22</t>
+          <t>model_15_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9435702848116044</v>
+        <v>0.9689337039501207</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7068340813298097</v>
+        <v>0.7600247441776726</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5119312856097346</v>
+        <v>0.9079322951971867</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8880850354308994</v>
+        <v>0.9819669401965521</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7677245157403974</v>
+        <v>0.9754050502201499</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3773457652997479</v>
+        <v>0.2077404647326832</v>
       </c>
       <c r="H24" t="n">
-        <v>1.960401848052493</v>
+        <v>1.604715640668352</v>
       </c>
       <c r="I24" t="n">
-        <v>1.012432076153104</v>
+        <v>0.2098161208415041</v>
       </c>
       <c r="J24" t="n">
-        <v>0.4925138418229792</v>
+        <v>0.4186996892793262</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7524729589880417</v>
+        <v>0.3142579050604151</v>
       </c>
       <c r="L24" t="n">
-        <v>1.053587981318059</v>
+        <v>1.274067081923565</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6142847591302815</v>
+        <v>0.4557855468668168</v>
       </c>
       <c r="N24" t="n">
-        <v>1.027639044173908</v>
+        <v>1.015216145004022</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6404361330712097</v>
+        <v>0.4751892812030885</v>
       </c>
       <c r="P24" t="n">
-        <v>147.9491867250448</v>
+        <v>149.1429314881937</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.9271219404234</v>
+        <v>238.1208667035724</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_23</t>
+          <t>model_15_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9434437678470261</v>
+        <v>0.9688516927698005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7056419760846152</v>
+        <v>0.7596880989036715</v>
       </c>
       <c r="D25" t="n">
-        <v>0.507862107452308</v>
+        <v>0.908417698247269</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8849424685956553</v>
+        <v>0.9823566796085835</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7642872211313678</v>
+        <v>0.9758024470990035</v>
       </c>
       <c r="G25" t="n">
-        <v>0.3781917848244404</v>
+        <v>0.2082888738731104</v>
       </c>
       <c r="H25" t="n">
-        <v>1.96837346131625</v>
+        <v>1.606966789165707</v>
       </c>
       <c r="I25" t="n">
-        <v>1.020873032044545</v>
+        <v>0.2087099198643967</v>
       </c>
       <c r="J25" t="n">
-        <v>0.5063436068697792</v>
+        <v>0.4096505444034086</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7636083194571619</v>
+        <v>0.3091802321339027</v>
       </c>
       <c r="L25" t="n">
-        <v>1.048374180551291</v>
+        <v>1.286685341899636</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6149729951993342</v>
+        <v>0.4563867590904784</v>
       </c>
       <c r="N25" t="n">
-        <v>1.027701011666763</v>
+        <v>1.015256313745404</v>
       </c>
       <c r="O25" t="n">
-        <v>0.6411536687745673</v>
+        <v>0.4758160882757922</v>
       </c>
       <c r="P25" t="n">
-        <v>147.9447076895387</v>
+        <v>149.1376586921942</v>
       </c>
       <c r="Q25" t="n">
-        <v>236.9226429049174</v>
+        <v>238.1155939075728</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_15_8_24</t>
+          <t>model_15_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9433148314267049</v>
+        <v>0.9687616086998381</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7044572848204764</v>
+        <v>0.7593412654020034</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5039321913773203</v>
+        <v>0.9089032869087088</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8817885279889148</v>
+        <v>0.9827438171773921</v>
       </c>
       <c r="F26" t="n">
-        <v>0.7608867873712367</v>
+        <v>0.9761974965489438</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3790539832608257</v>
+        <v>0.2088912664637483</v>
       </c>
       <c r="H26" t="n">
-        <v>1.976295497254548</v>
+        <v>1.609286066388383</v>
       </c>
       <c r="I26" t="n">
-        <v>1.029025107712574</v>
+        <v>0.2076032958914614</v>
       </c>
       <c r="J26" t="n">
-        <v>0.5202234254542558</v>
+        <v>0.4006618102930998</v>
       </c>
       <c r="K26" t="n">
-        <v>0.774624266583415</v>
+        <v>0.3041325530922806</v>
       </c>
       <c r="L26" t="n">
-        <v>1.043162599518211</v>
+        <v>1.299422488137689</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6156736012375598</v>
+        <v>0.45704624105636</v>
       </c>
       <c r="N26" t="n">
-        <v>1.027764164199165</v>
+        <v>1.015300436555181</v>
       </c>
       <c r="O26" t="n">
-        <v>0.6418841010622943</v>
+        <v>0.4765036457542773</v>
       </c>
       <c r="P26" t="n">
-        <v>147.9401532959967</v>
+        <v>149.1318828371037</v>
       </c>
       <c r="Q26" t="n">
-        <v>236.9180885113754</v>
+        <v>238.1098180524823</v>
       </c>
     </row>
   </sheetData>
